--- a/storage/imports/merchants.xlsx
+++ b/storage/imports/merchants.xlsx
@@ -112,7 +112,7 @@
     <t>logo-dover.png</t>
   </si>
   <si>
-    <t>DOVER</t>
+    <t>Dover</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7</t>
@@ -187,10 +187,10 @@
     <t>logo-CENTRO-VETERINARIO-MASCOTAS.png</t>
   </si>
   <si>
-    <t>CENTRO VETERINARIO MASCOTAS</t>
-  </si>
-  <si>
-    <t>1,2,3,5,6,7,8</t>
+    <t>Centro veterinario mascotas</t>
+  </si>
+  <si>
+    <t>1,2,3,6,7,8</t>
   </si>
   <si>
     <t>camilasaca82@gmail.com</t>
@@ -263,6 +263,7 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -277,7 +278,6 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -336,37 +336,40 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -602,7 +605,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="5.29"/>
     <col customWidth="1" min="2" max="2" width="9.29"/>
-    <col customWidth="1" min="3" max="3" width="17.0"/>
+    <col customWidth="1" min="3" max="3" width="53.0"/>
     <col customWidth="1" min="4" max="4" width="22.57"/>
     <col customWidth="1" min="5" max="5" width="12.43"/>
     <col customWidth="1" min="6" max="6" width="9.71"/>
@@ -725,7 +728,7 @@
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -740,16 +743,16 @@
       <c r="H2" s="2">
         <v>60.0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>4.701766</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>-74.029851</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <v>5169500.0</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -776,328 +779,328 @@
       <c r="T2" s="2">
         <v>1.0</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="4"/>
+      <c r="AF2" s="5"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>2.0</v>
       </c>
-      <c r="B3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>45000.0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <v>8.0</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>4.642193</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="11">
         <v>-74.048283</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O3" s="7">
+      <c r="N3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O3" s="8">
         <v>11.0</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="8">
         <v>524.0</v>
       </c>
-      <c r="Q3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="S3" s="7" t="s">
+      <c r="Q3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U3" s="12" t="s">
+      <c r="T3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="U3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="4" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="7" t="s">
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AF3" s="10"/>
+      <c r="AF3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>3.0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>2.0</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>47000.0</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>10.0</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>4.664219</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="11">
         <v>-74.058536</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="12">
         <v>3.11225003E9</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O4" s="7">
+      <c r="N4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O4" s="8">
         <v>11.0</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="8">
         <v>524.0</v>
       </c>
-      <c r="Q4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="S4" s="7" t="s">
+      <c r="Q4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="U4" s="12" t="s">
+      <c r="T4" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10" t="s">
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AC4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AE4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AF4" s="10"/>
+      <c r="AF4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>4.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>2.0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>35000.0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>5.0</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="11">
         <v>4.652309</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="11">
         <v>-74.045536</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="O5" s="7">
+      <c r="N5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O5" s="8">
         <v>11.0</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="8">
         <v>524.0</v>
       </c>
-      <c r="Q5" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="R5" s="7">
+      <c r="Q5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="R5" s="8">
         <v>0.0</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="10">
         <v>2.0</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10" t="s">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10" t="s">
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AE5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" s="10"/>
+      <c r="AF5" s="11"/>
     </row>
     <row r="6">
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="L6" s="14"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="L6" s="15"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
     </row>
     <row r="8">
-      <c r="I8" s="15"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9">
-      <c r="I9" s="16"/>
-      <c r="J9" s="15"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10">
-      <c r="J10" s="16"/>
-      <c r="U10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="U10" s="18"/>
     </row>
     <row r="11">
-      <c r="M11" s="18"/>
-      <c r="U11" s="17"/>
+      <c r="M11" s="19"/>
+      <c r="U11" s="18"/>
     </row>
     <row r="12">
-      <c r="M12" s="18"/>
-      <c r="U12" s="17"/>
+      <c r="M12" s="19"/>
+      <c r="U12" s="18"/>
     </row>
     <row r="13">
-      <c r="M13" s="19"/>
+      <c r="M13" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/storage/imports/merchants.xlsx
+++ b/storage/imports/merchants.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -115,133 +115,157 @@
     <t>Dover</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7</t>
+    <t>1,3,4,5,6,9,10</t>
+  </si>
+  <si>
+    <t>vet</t>
+  </si>
+  <si>
+    <t>harredon01@gmail.com</t>
+  </si>
+  <si>
+    <t>Cl. 126a #7 - 98, Bogotá</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>Somos una familia unida hace más de 60 años por el amor a los animales. Contamos con un equipo humano y profesional altamente calificados, comprometidos y apasionados por la salud y el bienestar de nuestros hijos de cuatro patas.</t>
+  </si>
+  <si>
+    <t>Atendemos Urgencias veterinarias 24/7</t>
+  </si>
+  <si>
+    <t>Servicios medicos: Consultas,  Imagenes diagnosticas, laboratorio, UCI, cirugias</t>
+  </si>
+  <si>
+    <t>Baño y peluquería</t>
+  </si>
+  <si>
+    <t>Tienda: alimentos, medicamentos, accesorios aseo y belleza, juguetes y entretención, ropa</t>
+  </si>
+  <si>
+    <t>Otros servicios: Certificados de viaje, Chip de identificación, servicios funebres.</t>
+  </si>
+  <si>
+    <t>Perros</t>
+  </si>
+  <si>
+    <t>Gatos</t>
+  </si>
+  <si>
+    <t>logo-centro-de-salud-animal-chapi-Alto.png</t>
+  </si>
+  <si>
+    <t>Centro de Salud Animal Chapinero Alto</t>
+  </si>
+  <si>
+    <t>1,3,4,5,6,9</t>
+  </si>
+  <si>
+    <t>harredon02@gmail.com</t>
+  </si>
+  <si>
+    <t>(1) 3471286</t>
+  </si>
+  <si>
+    <t>Cra 4 No. 57-15 Bogotá, Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital 24 horas con la mejor atención veterinaria para tu mascota, especialista en pequeños animales, medicina interna, preventiva, cirugia, rayos x, ortopedia, ecografia, odontologia, laboratorio clinico </t>
+  </si>
+  <si>
+    <t>Citas medicas veterinarias</t>
+  </si>
+  <si>
+    <t>Peluquería para mascotas</t>
+  </si>
+  <si>
+    <t>Urgencias 24h</t>
+  </si>
+  <si>
+    <t>logo-CENTRO-VETERINARIO-MASCOTAS.png</t>
+  </si>
+  <si>
+    <t>Centro veterinario mascotas</t>
+  </si>
+  <si>
+    <t>1,3,6,7,8</t>
+  </si>
+  <si>
+    <t>camilasaca82@gmail.com</t>
+  </si>
+  <si>
+    <t>Carrera 7 # 82-62</t>
+  </si>
+  <si>
+    <t>Somos una veterinaria con amplia experiencia clínica y científica en capacitación continua. Nuestros Médicos Veterinarios conjugan el conocimiento y los procesos clínicos, con el respeto, la transparencia y el amor por los animales. Pertenecemos a Vepa Bogotá y Cundinamarca (Asociación de Médicos Veterinarios de pequeños animales) que certifica nuestra calidad como profesionales idóneos en el campo de la Medicina Veterinaria.</t>
+  </si>
+  <si>
+    <t>Consultas. hopitalizacion, laboratorio clinico y farmacia</t>
+  </si>
+  <si>
+    <t>Sala de belleza</t>
+  </si>
+  <si>
+    <t>Guarderia campestre</t>
+  </si>
+  <si>
+    <t>Venta accesorios</t>
+  </si>
+  <si>
+    <t>Cementerio para mascotas</t>
+  </si>
+  <si>
+    <t>logo-de-pelos-compania.png</t>
+  </si>
+  <si>
+    <t>De pelos compañia</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 304 4422227</t>
+  </si>
+  <si>
+    <t>Queremos ayudarte a que tu peludo siempre esté limpio, dándote la tranquilidad de que siempre estará en las mejores manos y recibirá el cuidado que necesita. Por eso tenemos para tí los mejores servicios para bañar a tu perro o gato. Tenemos carros que cuentan con servicio de agua y luz propia, donde bañaran a tu mascota, brindando toda la comodidad que necesita para un baño a domicilio tranquilo y relajante. Sin afanes y sin trancones, vamos hasta tu casa y así garantizamos que la experiencia de baño sea De Pelos</t>
+  </si>
+  <si>
+    <t>Baño e hidromasaje</t>
+  </si>
+  <si>
+    <t>Peluqueria</t>
+  </si>
+  <si>
+    <t>Tratamiento antipulgas</t>
+  </si>
+  <si>
+    <t>Accesorios</t>
+  </si>
+  <si>
+    <t>doctor_quevedo.png</t>
+  </si>
+  <si>
+    <t>Doctor Wilson Quevedo</t>
   </si>
   <si>
     <t>doctor</t>
   </si>
   <si>
-    <t>harredon01@gmail.com</t>
-  </si>
-  <si>
-    <t>Cl. 126a #7 - 98, Bogotá</t>
-  </si>
-  <si>
-    <t>Zoom</t>
-  </si>
-  <si>
-    <t>Somos una familia unida hace más de 60 años por el amor a los animales. Contamos con un equipo humano y profesional altamente calificados, comprometidos y apasionados por la salud y el bienestar de nuestros hijos de cuatro patas.</t>
-  </si>
-  <si>
-    <t>Atendemos Urgencias veterinarias 24/7</t>
-  </si>
-  <si>
-    <t>Servicios medicos: Consultas,  Imagenes diagnosticas, laboratorio, UCI, cirugias</t>
-  </si>
-  <si>
-    <t>Baño y peluquería</t>
-  </si>
-  <si>
-    <t>Tienda: alimentos, medicamentos, accesorios aseo y belleza, juguetes y entretención, ropa</t>
-  </si>
-  <si>
-    <t>Otros servicios: Certificados de viaje, Chip de identificación, servicios funebres.</t>
-  </si>
-  <si>
-    <t>Perros</t>
-  </si>
-  <si>
-    <t>Gatos</t>
-  </si>
-  <si>
-    <t>logo-centro-de-salud-animal-chapi-Alto.png</t>
-  </si>
-  <si>
-    <t>Centro de Salud Animal Chapinero Alto</t>
-  </si>
-  <si>
-    <t>1,2,5,6</t>
-  </si>
-  <si>
-    <t>harredon02@gmail.com</t>
-  </si>
-  <si>
-    <t>(1) 3471286</t>
-  </si>
-  <si>
-    <t>Cra 4 No. 57-15 Bogotá, Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital 24 horas con la mejor atención veterinaria para tu mascota, especialista en pequeños animales, medicina interna, preventiva, cirugia, rayos x, ortopedia, ecografia, odontologia, laboratorio clinico </t>
-  </si>
-  <si>
-    <t>Citas medicas veterinarias</t>
-  </si>
-  <si>
-    <t>Peluquería para mascotas</t>
-  </si>
-  <si>
-    <t>Urgencias 24h</t>
-  </si>
-  <si>
-    <t>logo-CENTRO-VETERINARIO-MASCOTAS.png</t>
-  </si>
-  <si>
-    <t>Centro veterinario mascotas</t>
-  </si>
-  <si>
-    <t>1,2,3,6,7,8</t>
-  </si>
-  <si>
-    <t>camilasaca82@gmail.com</t>
-  </si>
-  <si>
-    <t>Carrera 7 # 82-62</t>
-  </si>
-  <si>
-    <t>Somos una veterinaria con amplia experiencia clínica y científica en capacitación continua. Nuestros Médicos Veterinarios conjugan el conocimiento y los procesos clínicos, con el respeto, la transparencia y el amor por los animales. Pertenecemos a Vepa Bogotá y Cundinamarca (Asociación de Médicos Veterinarios de pequeños animales) que certifica nuestra calidad como profesionales idóneos en el campo de la Medicina Veterinaria.</t>
-  </si>
-  <si>
-    <t>Consultas. hopitalizacion, laboratorio clinico y farmacia</t>
-  </si>
-  <si>
-    <t>Sala de belleza</t>
-  </si>
-  <si>
-    <t>Guarderia campestre</t>
-  </si>
-  <si>
-    <t>Venta accesorios</t>
-  </si>
-  <si>
-    <t>Cementerio para mascotas</t>
-  </si>
-  <si>
-    <t>logo-de-pelos-compania.png</t>
-  </si>
-  <si>
-    <t>De pelos compañia</t>
-  </si>
-  <si>
-    <t>1,2,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 304 4422227</t>
-  </si>
-  <si>
-    <t>Queremos ayudarte a que tu peludo siempre esté limpio, dándote la tranquilidad de que siempre estará en las mejores manos y recibirá el cuidado que necesita. Por eso tenemos para tí los mejores servicios para bañar a tu perro o gato. Tenemos carros que cuentan con servicio de agua y luz propia, donde bañaran a tu mascota, brindando toda la comodidad que necesita para un baño a domicilio tranquilo y relajante. Sin afanes y sin trancones, vamos hasta tu casa y así garantizamos que la experiencia de baño sea De Pelos</t>
-  </si>
-  <si>
-    <t>Baño e hidromasaje</t>
-  </si>
-  <si>
-    <t>Peluqueria</t>
-  </si>
-  <si>
-    <t>Tratamiento antipulgas</t>
-  </si>
-  <si>
-    <t>Accesorios</t>
+    <t xml:space="preserve">Medico veterinario de la universidad XXXX con X años de experiencia atendiendo  animales domesticos, principalmente perros y gatos. Especiaslista en medicina preventiva,  dermatitis </t>
+  </si>
+  <si>
+    <t>doctora_franco.JPG</t>
+  </si>
+  <si>
+    <t>Doctora Alejandra Franco</t>
+  </si>
+  <si>
+    <t>doctor_arredondo.JPG</t>
+  </si>
+  <si>
+    <t>Doctor Arredondo</t>
   </si>
 </sst>
 </file>
@@ -323,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -370,12 +394,18 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -731,14 +761,14 @@
       <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2">
-        <v>55000.0</v>
+      <c r="G2" s="4">
+        <v>0.0</v>
       </c>
       <c r="H2" s="2">
         <v>60.0</v>
@@ -818,14 +848,14 @@
       <c r="D3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="8">
-        <v>45000.0</v>
+      <c r="G3" s="10">
+        <v>0.0</v>
       </c>
       <c r="H3" s="10">
         <v>8.0</v>
@@ -910,8 +940,8 @@
       <c r="F4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="8">
-        <v>47000.0</v>
+      <c r="G4" s="10">
+        <v>0.0</v>
       </c>
       <c r="H4" s="8">
         <v>10.0</v>
@@ -994,14 +1024,14 @@
       <c r="D5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="8">
-        <v>35000.0</v>
+      <c r="G5" s="10">
+        <v>0.0</v>
       </c>
       <c r="H5" s="8">
         <v>5.0</v>
@@ -1064,10 +1094,69 @@
       <c r="AF5" s="11"/>
     </row>
     <row r="6">
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="L6" s="15"/>
-      <c r="U6" s="13"/>
+      <c r="A6" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="10">
+        <v>45000.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>4.642193</v>
+      </c>
+      <c r="J6" s="11">
+        <v>-74.048283</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>524.0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -1080,27 +1169,176 @@
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
     </row>
+    <row r="7">
+      <c r="A7" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="10">
+        <v>50000.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4.701766</v>
+      </c>
+      <c r="J7" s="5">
+        <v>-74.029851</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>524.0</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+    </row>
     <row r="8">
-      <c r="I8" s="16"/>
+      <c r="A8" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="8">
+        <v>50000.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>4.664219</v>
+      </c>
+      <c r="J8" s="11">
+        <v>-74.058536</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>524.0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
     </row>
     <row r="9">
-      <c r="I9" s="17"/>
-      <c r="J9" s="16"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10">
-      <c r="J10" s="17"/>
-      <c r="U10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="U10" s="20"/>
     </row>
     <row r="11">
-      <c r="M11" s="19"/>
-      <c r="U11" s="18"/>
+      <c r="M11" s="21"/>
+      <c r="U11" s="20"/>
     </row>
     <row r="12">
-      <c r="M12" s="19"/>
-      <c r="U12" s="18"/>
+      <c r="M12" s="21"/>
+      <c r="U12" s="20"/>
     </row>
     <row r="13">
-      <c r="M13" s="20"/>
+      <c r="M13" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/storage/imports/merchants.xlsx
+++ b/storage/imports/merchants.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -115,7 +115,7 @@
     <t>Dover</t>
   </si>
   <si>
-    <t>1,3,4,5,6,9,10</t>
+    <t>1,2,3,4,5,6,7,9,15</t>
   </si>
   <si>
     <t>vet</t>
@@ -160,9 +160,6 @@
     <t>Centro de Salud Animal Chapinero Alto</t>
   </si>
   <si>
-    <t>1,3,4,5,6,9</t>
-  </si>
-  <si>
     <t>harredon02@gmail.com</t>
   </si>
   <si>
@@ -190,7 +187,7 @@
     <t>Centro veterinario mascotas</t>
   </si>
   <si>
-    <t>1,3,6,7,8</t>
+    <t>2,3,4,5,6,17</t>
   </si>
   <si>
     <t>camilasaca82@gmail.com</t>
@@ -223,9 +220,6 @@
     <t>De pelos compañia</t>
   </si>
   <si>
-    <t>1,5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 304 4422227</t>
   </si>
   <si>
@@ -265,7 +259,73 @@
     <t>doctor_arredondo.JPG</t>
   </si>
   <si>
-    <t>Doctor Arredondo</t>
+    <t>Doctor Andres Barrera</t>
+  </si>
+  <si>
+    <t>Hakuna_Matata.</t>
+  </si>
+  <si>
+    <t>Hakuna Matata</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>carrera 1 este #72A-90</t>
+  </si>
+  <si>
+    <t>La Veterinaria Hakuna Matata nace del profundo interés de poder brindar un servicio integral, cercano y fraternal a las personas y sus mascotas, abarcando desde una atención personalizada en la comodidad del hogar, hasta el traslado y/o acompañamiento a los diferentes procedimientos médicos y quirúrgicos, siempre llevando control y seguimiento del estado de cada uno de los pacientes.</t>
+  </si>
+  <si>
+    <t>citas veterinarias</t>
+  </si>
+  <si>
+    <t>vacunación</t>
+  </si>
+  <si>
+    <t>guarderia_CSA.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guarderia por noches </t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>guarderia_campestre.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guarderia campestre </t>
+  </si>
+  <si>
+    <t>carrera 1 este #73-55</t>
+  </si>
+  <si>
+    <t>la_fe_mascotas.jpg</t>
+  </si>
+  <si>
+    <t>La Fe mascotas</t>
+  </si>
+  <si>
+    <t>serv</t>
+  </si>
+  <si>
+    <t>carrera 1 este #74-94</t>
+  </si>
+  <si>
+    <t>aviomar_mascotas.jpg</t>
+  </si>
+  <si>
+    <t>Aviomar Pet Relocation</t>
+  </si>
+  <si>
+    <t>16,5,6</t>
+  </si>
+  <si>
+    <t>carrera 1 este #73-94</t>
+  </si>
+  <si>
+    <t>Protegemos y cuidamos a su mascota en el transporte a su nuevo hogar, brindándole trato digno, bienestar, comodidad y tranquilidad; en servicios integrales se obtienen los permisos correspondientes a nivel nacional e internacional, veterinaria a domicilio, guardería, alimentación, alquiler a nivel a nacional del kennel, venta y/o fabricación de este con madera tratada y certificada.</t>
   </si>
 </sst>
 </file>
@@ -307,6 +367,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF4285F4"/>
       <name val="Arial"/>
@@ -317,14 +381,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF4285F4"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF999999"/>
-      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -347,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -378,44 +437,41 @@
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,13 +692,14 @@
     <col customWidth="1" min="1" max="1" width="5.29"/>
     <col customWidth="1" min="2" max="2" width="9.29"/>
     <col customWidth="1" min="3" max="3" width="53.0"/>
-    <col customWidth="1" min="4" max="4" width="22.57"/>
-    <col customWidth="1" min="5" max="5" width="12.43"/>
+    <col customWidth="1" min="4" max="4" width="34.43"/>
+    <col customWidth="1" min="5" max="5" width="17.29"/>
     <col customWidth="1" min="6" max="6" width="9.71"/>
     <col customWidth="1" min="7" max="7" width="10.57"/>
     <col customWidth="1" min="10" max="10" width="15.57"/>
     <col customWidth="1" min="11" max="11" width="24.57"/>
     <col customWidth="1" min="13" max="13" width="33.29"/>
+    <col customWidth="1" min="17" max="17" width="25.71"/>
     <col customWidth="1" min="21" max="21" width="89.86"/>
     <col customWidth="1" min="25" max="25" width="18.86"/>
     <col customWidth="1" min="27" max="27" width="20.71"/>
@@ -758,16 +815,16 @@
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>0.0</v>
       </c>
       <c r="H2" s="2">
@@ -849,31 +906,31 @@
         <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>0.0</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>8.0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>4.642193</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>-74.048283</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="N3" s="8">
         <v>1.0</v>
@@ -896,70 +953,70 @@
       <c r="T3" s="8">
         <v>1.0</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="AA3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
       <c r="AD3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="AE3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AF3" s="11"/>
+      <c r="AF3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="8">
         <v>3.0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>2.0</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>0.0</v>
       </c>
       <c r="H4" s="8">
         <v>10.0</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>4.664219</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>-74.058536</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="11">
+        <v>3.11225003E9</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="L4" s="12">
-        <v>3.11225003E9</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="N4" s="8">
         <v>1.0</v>
@@ -982,34 +1039,34 @@
       <c r="T4" s="8">
         <v>1.0</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11" t="s">
+      <c r="Z4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AA4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AB4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AC4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AC4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="AE4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AF4" s="11"/>
+      <c r="AF4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="8">
@@ -1019,34 +1076,34 @@
         <v>2.0</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>70</v>
+      <c r="E5" s="13">
+        <v>12.0</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>0.0</v>
       </c>
       <c r="H5" s="8">
         <v>5.0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>4.652309</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>-74.045536</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>71</v>
+      <c r="K5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="N5" s="8">
         <v>1.0</v>
@@ -1057,41 +1114,44 @@
       <c r="P5" s="8">
         <v>524.0</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="8">
         <v>1.0</v>
       </c>
       <c r="R5" s="8">
         <v>0.0</v>
       </c>
-      <c r="T5" s="10">
+      <c r="S5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="8">
         <v>2.0</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11" t="s">
+      <c r="AA5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="AB5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11" t="s">
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" s="11"/>
+      <c r="AF5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="8">
@@ -1101,37 +1161,37 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="15">
         <v>2.0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="10">
+        <v>77</v>
+      </c>
+      <c r="G6" s="8">
         <v>45000.0</v>
       </c>
       <c r="H6" s="8">
         <v>12.0</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>4.642193</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>-74.048283</v>
       </c>
       <c r="K6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="N6" s="8">
         <v>1.0</v>
@@ -1148,47 +1208,47 @@
       <c r="R6" s="8">
         <v>1.0</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="13" t="s">
         <v>38</v>
       </c>
       <c r="T6" s="8">
         <v>1.0</v>
       </c>
-      <c r="U6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
+      <c r="U6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>6.0</v>
       </c>
       <c r="B7" s="8">
         <v>1.0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="17">
+        <v>79</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="15">
         <v>2.0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="10">
+        <v>77</v>
+      </c>
+      <c r="G7" s="8">
         <v>50000.0</v>
       </c>
       <c r="H7" s="8">
@@ -1201,12 +1261,12 @@
         <v>-74.029851</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="N7" s="8">
@@ -1224,45 +1284,45 @@
       <c r="R7" s="8">
         <v>1.0</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="13" t="s">
         <v>38</v>
       </c>
       <c r="T7" s="8">
         <v>1.0</v>
       </c>
-      <c r="U7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
+      <c r="U7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>7.0</v>
       </c>
       <c r="B8" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="17">
+        <v>81</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="15">
         <v>2.0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" s="8">
         <v>50000.0</v>
@@ -1270,20 +1330,20 @@
       <c r="H8" s="8">
         <v>12.0</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>4.664219</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>-74.058536</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="N8" s="8">
         <v>1.0</v>
@@ -1300,45 +1360,342 @@
       <c r="R8" s="8">
         <v>1.0</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T8" s="8">
         <v>1.0</v>
       </c>
-      <c r="U8" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
+      <c r="U8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
     </row>
     <row r="9">
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
+      <c r="A9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>4.653592</v>
+      </c>
+      <c r="J9" s="17">
+        <v>-74.049702</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3.103418432E9</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>524.0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10">
-      <c r="J10" s="18"/>
-      <c r="U10" s="20"/>
+      <c r="A10" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>4.664219</v>
+      </c>
+      <c r="J10" s="10">
+        <v>-74.058536</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="8">
+        <v>3.105507245E9</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>524.0</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="U10" s="19"/>
     </row>
     <row r="11">
-      <c r="M11" s="21"/>
-      <c r="U11" s="20"/>
+      <c r="A11" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>4.653592</v>
+      </c>
+      <c r="J11" s="17">
+        <v>-74.049702</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="8">
+        <v>3.107596058E9</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>524.0</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R11" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="19"/>
     </row>
     <row r="12">
-      <c r="M12" s="21"/>
-      <c r="U12" s="20"/>
+      <c r="A12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>4.653592</v>
+      </c>
+      <c r="J12" s="17">
+        <v>-74.049702</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="8">
+        <v>3.109684871E9</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>524.0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" s="19"/>
     </row>
     <row r="13">
-      <c r="M13" s="22"/>
+      <c r="A13" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>4.653592</v>
+      </c>
+      <c r="J13" s="17">
+        <v>-74.049702</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3.103418432E9</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="O13" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>524.0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="U14" s="21"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
